--- a/HD-SupplyPracise/excelData/data12.xlsx
+++ b/HD-SupplyPracise/excelData/data12.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaset\git\HD-SupplyPracise\HD-SupplyPracise\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA17C21-A725-477F-9137-A4C4FB5C1F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52797766-7681-4A82-8DA0-C11C2AF9BE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -70,7 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +384,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -406,7 +405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -414,7 +413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -422,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -430,7 +429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -438,7 +437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
